--- a/test12.xlsx
+++ b/test12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -317,6 +317,18 @@
   </x:si>
   <x:si>
     <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account name to view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to delete</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J52" totalsRowShown="0">
-  <x:autoFilter ref="A1:J52"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J62" totalsRowShown="0">
+  <x:autoFilter ref="A1:J62"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -706,7 +718,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J52"/>
+  <x:dimension ref="A1:J62"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -718,7 +730,7 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="41.550625000000004" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="56.980625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="63.130625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="43.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
@@ -1839,6 +1851,222 @@
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s"/>
+      <x:c r="F53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s"/>
+      <x:c r="F62" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/test12.xlsx
+++ b/test12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TestApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7603F-48BB-47E7-A9AF-F4A068E48B11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F5E02-725E-4F3C-8301-275F75908C4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>In valid</t>
   </si>
 </sst>
 </file>
@@ -506,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +673,10 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
